--- a/results/mp/tinybert/toy-spam/confidence/210/stop-words-0.2/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/210/stop-words-0.2/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="127">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,145 +43,148 @@
     <t>poorly</t>
   </si>
   <si>
+    <t>disappointment</t>
+  </si>
+  <si>
     <t>disappointing</t>
   </si>
   <si>
-    <t>trash</t>
-  </si>
-  <si>
     <t>ripped</t>
   </si>
   <si>
+    <t>however</t>
+  </si>
+  <si>
     <t>crap</t>
   </si>
   <si>
-    <t>disappointment</t>
+    <t>thin</t>
   </si>
   <si>
     <t>broke</t>
   </si>
   <si>
+    <t>inches</t>
+  </si>
+  <si>
     <t>disappointed</t>
   </si>
   <si>
-    <t>however</t>
+    <t>poor</t>
   </si>
   <si>
     <t>returned</t>
   </si>
   <si>
-    <t>poor</t>
-  </si>
-  <si>
-    <t>thin</t>
-  </si>
-  <si>
-    <t>inches</t>
+    <t>worst</t>
   </si>
   <si>
     <t>waste</t>
   </si>
   <si>
+    <t>loose</t>
+  </si>
+  <si>
+    <t>smaller</t>
+  </si>
+  <si>
+    <t>instead</t>
+  </si>
+  <si>
+    <t>junk</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>missing</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
     <t>tiny</t>
   </si>
   <si>
     <t>probably</t>
   </si>
   <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>junk</t>
-  </si>
-  <si>
-    <t>instead</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>smaller</t>
+    <t>pool</t>
+  </si>
+  <si>
+    <t>small</t>
+  </si>
+  <si>
+    <t>fell</t>
   </si>
   <si>
     <t>broken</t>
   </si>
   <si>
+    <t>plastic</t>
+  </si>
+  <si>
+    <t>apart</t>
+  </si>
+  <si>
     <t>guess</t>
   </si>
   <si>
-    <t>missing</t>
-  </si>
-  <si>
-    <t>small</t>
-  </si>
-  <si>
-    <t>pool</t>
-  </si>
-  <si>
-    <t>water</t>
-  </si>
-  <si>
-    <t>fell</t>
-  </si>
-  <si>
     <t>okay</t>
   </si>
   <si>
-    <t>apart</t>
-  </si>
-  <si>
-    <t>plastic</t>
+    <t>less</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>paint</t>
+  </si>
+  <si>
+    <t>thought</t>
+  </si>
+  <si>
+    <t>tried</t>
   </si>
   <si>
     <t>lasted</t>
   </si>
   <si>
-    <t>might</t>
-  </si>
-  <si>
-    <t>paint</t>
+    <t>un</t>
+  </si>
+  <si>
+    <t>maybe</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>charge</t>
   </si>
   <si>
     <t>half</t>
   </si>
   <si>
-    <t>thought</t>
-  </si>
-  <si>
-    <t>less</t>
-  </si>
-  <si>
-    <t>maybe</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>un</t>
-  </si>
-  <si>
-    <t>short</t>
-  </si>
-  <si>
-    <t>ok</t>
+    <t>cheap</t>
+  </si>
+  <si>
+    <t>pay</t>
   </si>
   <si>
     <t>fl</t>
   </si>
   <si>
-    <t>cheap</t>
-  </si>
-  <si>
-    <t>seem</t>
-  </si>
-  <si>
-    <t>pay</t>
-  </si>
-  <si>
-    <t>di</t>
+    <t>bad</t>
   </si>
   <si>
     <t>though</t>
@@ -190,159 +193,132 @@
     <t>light</t>
   </si>
   <si>
+    <t>nothing</t>
+  </si>
+  <si>
+    <t>bit</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>sound</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>fit</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>minutes</t>
+  </si>
+  <si>
+    <t>would</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>color</t>
   </si>
   <si>
-    <t>tried</t>
-  </si>
-  <si>
-    <t>return</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>size</t>
-  </si>
-  <si>
-    <t>actually</t>
-  </si>
-  <si>
-    <t>bit</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>sound</t>
+    <t>work</t>
+  </si>
+  <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>back</t>
+  </si>
+  <si>
+    <t>picture</t>
+  </si>
+  <si>
+    <t>better</t>
   </si>
   <si>
     <t>worked</t>
   </si>
   <si>
-    <t>rec</t>
-  </si>
-  <si>
-    <t>hold</t>
-  </si>
-  <si>
-    <t>would</t>
-  </si>
-  <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>picture</t>
-  </si>
-  <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>back</t>
-  </si>
-  <si>
-    <t>fit</t>
+    <t>product</t>
   </si>
   <si>
     <t>used</t>
   </si>
   <si>
-    <t>nothing</t>
+    <t>could</t>
   </si>
   <si>
     <t>price</t>
   </si>
   <si>
-    <t>found</t>
-  </si>
-  <si>
-    <t>could</t>
+    <t>ordered</t>
+  </si>
+  <si>
+    <t>pieces</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>box</t>
   </si>
   <si>
     <t>look</t>
   </si>
   <si>
-    <t>pieces</t>
+    <t>put</t>
+  </si>
+  <si>
+    <t>need</t>
+  </si>
+  <si>
+    <t>use</t>
   </si>
   <si>
     <t>expected</t>
   </si>
   <si>
-    <t>product</t>
-  </si>
-  <si>
-    <t>need</t>
-  </si>
-  <si>
-    <t>box</t>
-  </si>
-  <si>
-    <t>put</t>
+    <t>2</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>use</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
     <t>way</t>
   </si>
   <si>
-    <t>first</t>
+    <t>like</t>
+  </si>
+  <si>
+    <t>little</t>
+  </si>
+  <si>
+    <t>even</t>
   </si>
   <si>
     <t>buy</t>
   </si>
   <si>
-    <t>two</t>
-  </si>
-  <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
     <t>made</t>
   </si>
   <si>
     <t>much</t>
   </si>
   <si>
-    <t>even</t>
+    <t>get</t>
+  </si>
+  <si>
+    <t>toy</t>
   </si>
   <si>
     <t>one</t>
   </si>
   <si>
-    <t>bought</t>
-  </si>
-  <si>
-    <t>toy</t>
-  </si>
-  <si>
-    <t>get</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
@@ -355,18 +331,18 @@
     <t>amazing</t>
   </si>
   <si>
+    <t>enjoyable</t>
+  </si>
+  <si>
     <t>favorite</t>
   </si>
   <si>
-    <t>enjoyable</t>
+    <t>classic</t>
   </si>
   <si>
     <t>excellent</t>
   </si>
   <si>
-    <t>classic</t>
-  </si>
-  <si>
     <t>thank</t>
   </si>
   <si>
@@ -379,46 +355,43 @@
     <t>loves</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>loved</t>
+  </si>
+  <si>
     <t>perfect</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
     <t>friends</t>
   </si>
   <si>
     <t>learn</t>
   </si>
   <si>
+    <t>every</t>
+  </si>
+  <si>
+    <t>enjoyed</t>
+  </si>
+  <si>
     <t>enjoy</t>
   </si>
   <si>
+    <t>fun</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>christmas</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>fun</t>
-  </si>
-  <si>
     <t>family</t>
   </si>
   <si>
-    <t>cute</t>
-  </si>
-  <si>
     <t>game</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>play</t>
   </si>
   <si>
     <t>positive</t>
@@ -779,7 +752,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q103"/>
+  <dimension ref="A1:Q95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -787,10 +760,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="J1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -848,38 +821,38 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="C3">
+        <v>45</v>
+      </c>
+      <c r="D3">
+        <v>45</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="K3">
+        <v>0.8214285714285714</v>
+      </c>
+      <c r="L3">
         <v>46</v>
       </c>
-      <c r="D3">
+      <c r="M3">
         <v>46</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="K3">
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="L3">
-        <v>48</v>
-      </c>
-      <c r="M3">
-        <v>48</v>
-      </c>
       <c r="N3">
         <v>1</v>
       </c>
@@ -890,7 +863,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -898,13 +871,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7954545454545454</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="C4">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="D4">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -916,10 +889,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="K4">
         <v>0.8</v>
@@ -948,13 +921,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7894736842105263</v>
+        <v>0.8409090909090909</v>
       </c>
       <c r="C5">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="D5">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -966,10 +939,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="K5">
         <v>0.7777777777777778</v>
@@ -998,13 +971,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7777777777777778</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="C6">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D6">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1016,19 +989,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="K6">
-        <v>0.6559139784946236</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L6">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="M6">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1040,7 +1013,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1048,13 +1021,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7619047619047619</v>
+        <v>0.765625</v>
       </c>
       <c r="C7">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="D7">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1066,19 +1039,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="K7">
-        <v>0.625</v>
+        <v>0.6344086021505376</v>
       </c>
       <c r="L7">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="M7">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1090,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>9</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1119,16 +1092,16 @@
         <v>5</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="K8">
-        <v>0.5625</v>
+        <v>0.5849056603773585</v>
       </c>
       <c r="L8">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="M8">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1140,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1148,13 +1121,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7524271844660194</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="C9">
-        <v>155</v>
+        <v>22</v>
       </c>
       <c r="D9">
-        <v>155</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1166,19 +1139,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="K9">
-        <v>0.5283018867924528</v>
+        <v>0.484375</v>
       </c>
       <c r="L9">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="M9">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1190,7 +1163,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1198,13 +1171,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7204301075268817</v>
+        <v>0.7378640776699029</v>
       </c>
       <c r="C10">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="D10">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1216,10 +1189,10 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="K10">
         <v>0.4492753623188406</v>
@@ -1248,13 +1221,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.71875</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="C11">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="D11">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1266,19 +1239,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="K11">
-        <v>0.3663934426229508</v>
+        <v>0.3713114754098361</v>
       </c>
       <c r="L11">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="M11">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1290,7 +1263,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>773</v>
+        <v>767</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1298,13 +1271,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7105263157894737</v>
+        <v>0.7258064516129032</v>
       </c>
       <c r="C12">
-        <v>27</v>
+        <v>135</v>
       </c>
       <c r="D12">
-        <v>27</v>
+        <v>135</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1316,19 +1289,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="K12">
-        <v>0.3448275862068966</v>
+        <v>0.3371592539454806</v>
       </c>
       <c r="L12">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="M12">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1337,10 +1310,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>456</v>
+        <v>462</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1369,16 +1342,16 @@
         <v>21</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="K13">
-        <v>0.2966804979253112</v>
+        <v>0.2717842323651452</v>
       </c>
       <c r="L13">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="M13">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1390,7 +1363,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>339</v>
+        <v>351</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1398,13 +1371,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6896551724137931</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C14">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D14">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1416,19 +1389,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="K14">
-        <v>0.2228915662650602</v>
+        <v>0.2416666666666667</v>
       </c>
       <c r="L14">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="M14">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1440,7 +1413,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>129</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1448,13 +1421,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6818181818181818</v>
+        <v>0.68</v>
       </c>
       <c r="C15">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D15">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1466,19 +1439,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="K15">
-        <v>0.2166666666666667</v>
+        <v>0.2201834862385321</v>
       </c>
       <c r="L15">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="M15">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1490,7 +1463,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>94</v>
+        <v>255</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1498,13 +1471,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6756756756756757</v>
+        <v>0.6554054054054054</v>
       </c>
       <c r="C16">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D16">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1516,19 +1489,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="K16">
-        <v>0.1987767584097859</v>
+        <v>0.2048192771084337</v>
       </c>
       <c r="L16">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="M16">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1540,7 +1513,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>262</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1548,13 +1521,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6571428571428571</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="C17">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D17">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1566,19 +1539,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="K17">
-        <v>0.1587301587301587</v>
+        <v>0.1851851851851852</v>
       </c>
       <c r="L17">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="M17">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1590,7 +1563,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1598,13 +1571,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.631578947368421</v>
+        <v>0.6302521008403361</v>
       </c>
       <c r="C18">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="D18">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1616,19 +1589,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="K18">
-        <v>0.1484375</v>
+        <v>0.171875</v>
       </c>
       <c r="L18">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M18">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1640,7 +1613,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1648,13 +1621,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.6</v>
+        <v>0.625</v>
       </c>
       <c r="C19">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D19">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1666,31 +1639,31 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="K19">
-        <v>0.1135135135135135</v>
+        <v>0.136</v>
       </c>
       <c r="L19">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="M19">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="N19">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O19">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>164</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1719,16 +1692,16 @@
         <v>22</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="K20">
-        <v>0.108433734939759</v>
+        <v>0.1349206349206349</v>
       </c>
       <c r="L20">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="M20">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1740,7 +1713,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>222</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1748,13 +1721,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5833333333333334</v>
+        <v>0.5806451612903226</v>
       </c>
       <c r="C21">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D21">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1766,19 +1739,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="K21">
-        <v>0.1048951048951049</v>
+        <v>0.1182795698924731</v>
       </c>
       <c r="L21">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="M21">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1790,7 +1763,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>128</v>
+        <v>164</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1798,13 +1771,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5806451612903226</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C22">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D22">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1816,19 +1789,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="K22">
-        <v>0.09824561403508772</v>
+        <v>0.1105263157894737</v>
       </c>
       <c r="L22">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="M22">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="N22">
         <v>0.99</v>
@@ -1840,7 +1813,7 @@
         <v>1</v>
       </c>
       <c r="Q22">
-        <v>1028</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1848,13 +1821,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.5546218487394958</v>
+        <v>0.5476190476190477</v>
       </c>
       <c r="C23">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="D23">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1866,19 +1839,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="K23">
-        <v>0.06685236768802229</v>
+        <v>0.1048951048951049</v>
       </c>
       <c r="L23">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="M23">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1890,7 +1863,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>335</v>
+        <v>128</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1898,13 +1871,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.5542168674698795</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="C24">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="D24">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1916,31 +1889,31 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="K24">
-        <v>0.05859375</v>
+        <v>0.09274193548387097</v>
       </c>
       <c r="L24">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M24">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="N24">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="O24">
-        <v>0.06000000000000005</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P24" t="b">
         <v>1</v>
       </c>
       <c r="Q24">
-        <v>241</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1948,13 +1921,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.5370370370370371</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="C25">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D25">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1966,31 +1939,31 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="K25">
-        <v>0.05064935064935065</v>
+        <v>0.0584958217270195</v>
       </c>
       <c r="L25">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="M25">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="N25">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O25">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>1462</v>
+        <v>338</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1998,13 +1971,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.5333333333333333</v>
+        <v>0.5142857142857142</v>
       </c>
       <c r="C26">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D26">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -2016,31 +1989,31 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="K26">
-        <v>0.0427807486631016</v>
+        <v>0.0512987012987013</v>
       </c>
       <c r="L26">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="M26">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="N26">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O26">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q26">
-        <v>358</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2048,13 +2021,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.527536231884058</v>
+        <v>0.5130434782608696</v>
       </c>
       <c r="C27">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D27">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2066,31 +2039,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>163</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="K27">
-        <v>0.0213903743315508</v>
-      </c>
-      <c r="L27">
-        <v>16</v>
-      </c>
-      <c r="M27">
-        <v>20</v>
-      </c>
-      <c r="N27">
-        <v>0.8</v>
-      </c>
-      <c r="O27">
-        <v>0.2</v>
-      </c>
-      <c r="P27" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q27">
-        <v>732</v>
+        <v>168</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2098,13 +2047,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.5142857142857142</v>
+        <v>0.4909090909090909</v>
       </c>
       <c r="C28">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D28">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2116,7 +2065,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2124,13 +2073,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.4761904761904762</v>
+        <v>0.4698795180722892</v>
       </c>
       <c r="C29">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D29">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2142,7 +2091,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>22</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2150,13 +2099,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.4727272727272727</v>
+        <v>0.4645669291338583</v>
       </c>
       <c r="C30">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="D30">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2168,7 +2117,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>29</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2176,13 +2125,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.462962962962963</v>
+        <v>0.4631578947368421</v>
       </c>
       <c r="C31">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="D31">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2194,7 +2143,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>29</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2202,13 +2151,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.4421052631578947</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="C32">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="D32">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2220,7 +2169,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>53</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2228,13 +2177,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.4330708661417323</v>
+        <v>0.4259259259259259</v>
       </c>
       <c r="C33">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="D33">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2246,7 +2195,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>72</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2254,13 +2203,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.4285714285714285</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="C34">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D34">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2272,7 +2221,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2280,13 +2229,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.4146341463414634</v>
+        <v>0.40625</v>
       </c>
       <c r="C35">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D35">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2298,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>24</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2306,13 +2255,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.3968253968253968</v>
+        <v>0.3958333333333333</v>
       </c>
       <c r="C36">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D36">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2324,7 +2273,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2332,13 +2281,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.3888888888888889</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="C37">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D37">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2350,7 +2299,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2358,13 +2307,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.3861386138613861</v>
+        <v>0.3820224719101123</v>
       </c>
       <c r="C38">
-        <v>78</v>
+        <v>34</v>
       </c>
       <c r="D38">
-        <v>78</v>
+        <v>34</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2376,7 +2325,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>124</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2384,13 +2333,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.3833333333333334</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="C39">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D39">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2402,7 +2351,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2410,13 +2359,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.375</v>
+        <v>0.3762376237623762</v>
       </c>
       <c r="C40">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="D40">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2428,7 +2377,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>35</v>
+        <v>126</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2436,13 +2385,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.3595505617977528</v>
+        <v>0.360655737704918</v>
       </c>
       <c r="C41">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D41">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2454,7 +2403,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>57</v>
+        <v>39</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2462,13 +2411,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.3541666666666667</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="C42">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D42">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2480,7 +2429,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2514,13 +2463,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.3469387755102041</v>
+        <v>0.3392857142857143</v>
       </c>
       <c r="C44">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D44">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2532,7 +2481,7 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2566,13 +2515,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.3275862068965517</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C46">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D46">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2584,7 +2533,7 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2592,13 +2541,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.3222748815165877</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C47">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="D47">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2610,7 +2559,7 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>143</v>
+        <v>36</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2618,13 +2567,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.3061224489795918</v>
+        <v>0.3175355450236967</v>
       </c>
       <c r="C48">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="D48">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2636,7 +2585,7 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>34</v>
+        <v>144</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2644,13 +2593,13 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.3015873015873016</v>
+        <v>0.3174603174603174</v>
       </c>
       <c r="C49">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D49">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -2662,7 +2611,7 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2670,13 +2619,13 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.296875</v>
+        <v>0.293103448275862</v>
       </c>
       <c r="C50">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D50">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -2688,7 +2637,7 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2696,13 +2645,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.2905982905982906</v>
+        <v>0.2835820895522388</v>
       </c>
       <c r="C51">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="D51">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -2714,7 +2663,7 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>83</v>
+        <v>48</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2722,13 +2671,13 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.2857142857142857</v>
+        <v>0.2735042735042735</v>
       </c>
       <c r="C52">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="D52">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -2740,7 +2689,7 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>40</v>
+        <v>85</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2748,13 +2697,13 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.28</v>
+        <v>0.2678571428571428</v>
       </c>
       <c r="C53">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D53">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -2766,7 +2715,7 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>54</v>
+        <v>41</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2774,13 +2723,13 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.2786885245901639</v>
+        <v>0.2637362637362637</v>
       </c>
       <c r="C54">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D54">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -2792,7 +2741,7 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>44</v>
+        <v>67</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2800,13 +2749,13 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.2741935483870968</v>
+        <v>0.2551020408163265</v>
       </c>
       <c r="C55">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D55">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -2818,7 +2767,7 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>45</v>
+        <v>73</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2826,13 +2775,13 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.2686567164179104</v>
+        <v>0.2525773195876289</v>
       </c>
       <c r="C56">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="D56">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -2844,7 +2793,7 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>49</v>
+        <v>145</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2852,13 +2801,13 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.2628865979381443</v>
+        <v>0.2463768115942029</v>
       </c>
       <c r="C57">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="D57">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -2870,7 +2819,7 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>143</v>
+        <v>52</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2878,13 +2827,13 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.25</v>
+        <v>0.2341772151898734</v>
       </c>
       <c r="C58">
-        <v>15</v>
+        <v>74</v>
       </c>
       <c r="D58">
-        <v>15</v>
+        <v>74</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -2896,7 +2845,7 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>45</v>
+        <v>242</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2904,13 +2853,13 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.2448979591836735</v>
+        <v>0.2268041237113402</v>
       </c>
       <c r="C59">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D59">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -2922,7 +2871,7 @@
         <v>0</v>
       </c>
       <c r="H59">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2930,13 +2879,13 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.2288135593220339</v>
+        <v>0.2246376811594203</v>
       </c>
       <c r="C60">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="D60">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -2948,7 +2897,7 @@
         <v>0</v>
       </c>
       <c r="H60">
-        <v>91</v>
+        <v>214</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2956,13 +2905,13 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.2210144927536232</v>
+        <v>0.2162162162162162</v>
       </c>
       <c r="C61">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="D61">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -2974,7 +2923,7 @@
         <v>0</v>
       </c>
       <c r="H61">
-        <v>215</v>
+        <v>58</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2982,25 +2931,25 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.2173913043478261</v>
+        <v>0.2154531946508172</v>
       </c>
       <c r="C62">
-        <v>15</v>
+        <v>145</v>
       </c>
       <c r="D62">
-        <v>15</v>
+        <v>146</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F62">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H62">
-        <v>54</v>
+        <v>528</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3008,13 +2957,13 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.212962962962963</v>
+        <v>0.211864406779661</v>
       </c>
       <c r="C63">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D63">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -3026,7 +2975,7 @@
         <v>0</v>
       </c>
       <c r="H63">
-        <v>85</v>
+        <v>93</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3034,7 +2983,7 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.2112676056338028</v>
+        <v>0.2</v>
       </c>
       <c r="C64">
         <v>15</v>
@@ -3052,7 +3001,7 @@
         <v>0</v>
       </c>
       <c r="H64">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3060,13 +3009,13 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.2027027027027027</v>
+        <v>0.1930379746835443</v>
       </c>
       <c r="C65">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="D65">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -3078,7 +3027,7 @@
         <v>0</v>
       </c>
       <c r="H65">
-        <v>59</v>
+        <v>255</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3086,25 +3035,25 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.2005943536404161</v>
+        <v>0.19</v>
       </c>
       <c r="C66">
-        <v>135</v>
+        <v>38</v>
       </c>
       <c r="D66">
-        <v>136</v>
+        <v>38</v>
       </c>
       <c r="E66">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F66">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H66">
-        <v>538</v>
+        <v>162</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3112,13 +3061,13 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.1993670886075949</v>
+        <v>0.1857142857142857</v>
       </c>
       <c r="C67">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="D67">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -3130,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="H67">
-        <v>253</v>
+        <v>114</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3138,13 +3087,13 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.1958762886597938</v>
+        <v>0.1855670103092784</v>
       </c>
       <c r="C68">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D68">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -3156,7 +3105,7 @@
         <v>0</v>
       </c>
       <c r="H68">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3164,13 +3113,13 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.195</v>
+        <v>0.1682242990654206</v>
       </c>
       <c r="C69">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D69">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -3182,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="H69">
-        <v>161</v>
+        <v>178</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3190,13 +3139,13 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.1930379746835443</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C70">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="D70">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -3208,7 +3157,7 @@
         <v>0</v>
       </c>
       <c r="H70">
-        <v>255</v>
+        <v>90</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3216,13 +3165,13 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.191588785046729</v>
+        <v>0.1563876651982379</v>
       </c>
       <c r="C71">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="D71">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -3234,7 +3183,7 @@
         <v>0</v>
       </c>
       <c r="H71">
-        <v>173</v>
+        <v>383</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3242,13 +3191,13 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1857142857142857</v>
+        <v>0.1542857142857143</v>
       </c>
       <c r="C72">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D72">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -3260,7 +3209,7 @@
         <v>0</v>
       </c>
       <c r="H72">
-        <v>114</v>
+        <v>148</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3268,13 +3217,13 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.1855670103092784</v>
+        <v>0.1464968152866242</v>
       </c>
       <c r="C73">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D73">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -3286,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="H73">
-        <v>79</v>
+        <v>134</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3294,13 +3243,13 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1771428571428571</v>
+        <v>0.1436781609195402</v>
       </c>
       <c r="C74">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="D74">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -3312,7 +3261,7 @@
         <v>0</v>
       </c>
       <c r="H74">
-        <v>144</v>
+        <v>298</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3320,13 +3269,13 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.1758241758241758</v>
+        <v>0.1376146788990826</v>
       </c>
       <c r="C75">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D75">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -3338,7 +3287,7 @@
         <v>0</v>
       </c>
       <c r="H75">
-        <v>75</v>
+        <v>94</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3346,25 +3295,25 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1729106628242075</v>
+        <v>0.1366120218579235</v>
       </c>
       <c r="C76">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="D76">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="E76">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F76">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H76">
-        <v>287</v>
+        <v>158</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3372,25 +3321,25 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1595744680851064</v>
+        <v>0.1283422459893048</v>
       </c>
       <c r="C77">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D77">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="E77">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="F77">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="G77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H77">
-        <v>79</v>
+        <v>163</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3398,13 +3347,13 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.1592356687898089</v>
+        <v>0.1256544502617801</v>
       </c>
       <c r="C78">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D78">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -3416,7 +3365,7 @@
         <v>0</v>
       </c>
       <c r="H78">
-        <v>132</v>
+        <v>167</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3424,13 +3373,13 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.15625</v>
+        <v>0.125</v>
       </c>
       <c r="C79">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D79">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -3442,7 +3391,7 @@
         <v>0</v>
       </c>
       <c r="H79">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3450,13 +3399,13 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0.1530054644808743</v>
+        <v>0.1233766233766234</v>
       </c>
       <c r="C80">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D80">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -3468,7 +3417,7 @@
         <v>0</v>
       </c>
       <c r="H80">
-        <v>155</v>
+        <v>135</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3476,13 +3425,13 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1510416666666667</v>
+        <v>0.1230769230769231</v>
       </c>
       <c r="C81">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D81">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -3494,7 +3443,7 @@
         <v>0</v>
       </c>
       <c r="H81">
-        <v>163</v>
+        <v>114</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3502,25 +3451,25 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>0.1475770925110132</v>
+        <v>0.1181318681318681</v>
       </c>
       <c r="C82">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="D82">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F82">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H82">
-        <v>387</v>
+        <v>321</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3528,13 +3477,13 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>0.1461538461538462</v>
+        <v>0.109375</v>
       </c>
       <c r="C83">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D83">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -3546,7 +3495,7 @@
         <v>0</v>
       </c>
       <c r="H83">
-        <v>111</v>
+        <v>171</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3554,13 +3503,13 @@
         <v>89</v>
       </c>
       <c r="B84">
-        <v>0.1413612565445026</v>
+        <v>0.1086142322097378</v>
       </c>
       <c r="C84">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D84">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -3572,7 +3521,7 @@
         <v>0</v>
       </c>
       <c r="H84">
-        <v>164</v>
+        <v>238</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3580,25 +3529,25 @@
         <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1298701298701299</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="C85">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D85">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E85">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="F85">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="G85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H85">
-        <v>134</v>
+        <v>220</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3606,25 +3555,25 @@
         <v>91</v>
       </c>
       <c r="B86">
-        <v>0.1290322580645161</v>
+        <v>0.09411764705882353</v>
       </c>
       <c r="C86">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D86">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="E86">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="F86">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H86">
-        <v>216</v>
+        <v>154</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3632,25 +3581,25 @@
         <v>92</v>
       </c>
       <c r="B87">
-        <v>0.1290322580645161</v>
+        <v>0.08731466227347612</v>
       </c>
       <c r="C87">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="D87">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="E87">
-        <v>0.11</v>
+        <v>0.02</v>
       </c>
       <c r="F87">
-        <v>0.89</v>
+        <v>0.98</v>
       </c>
       <c r="G87" t="b">
         <v>1</v>
       </c>
       <c r="H87">
-        <v>162</v>
+        <v>554</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3658,25 +3607,25 @@
         <v>93</v>
       </c>
       <c r="B88">
-        <v>0.1132075471698113</v>
+        <v>0.08705357142857142</v>
       </c>
       <c r="C88">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="D88">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="E88">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="F88">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="G88" t="b">
         <v>1</v>
       </c>
       <c r="H88">
-        <v>235</v>
+        <v>409</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3684,13 +3633,13 @@
         <v>94</v>
       </c>
       <c r="B89">
-        <v>0.1123287671232877</v>
+        <v>0.075</v>
       </c>
       <c r="C89">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="D89">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -3702,7 +3651,7 @@
         <v>0</v>
       </c>
       <c r="H89">
-        <v>324</v>
+        <v>259</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3710,25 +3659,25 @@
         <v>95</v>
       </c>
       <c r="B90">
-        <v>0.1091954022988506</v>
+        <v>0.07062146892655367</v>
       </c>
       <c r="C90">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D90">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E90">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="F90">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="G90" t="b">
         <v>1</v>
       </c>
       <c r="H90">
-        <v>155</v>
+        <v>329</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3736,7 +3685,7 @@
         <v>96</v>
       </c>
       <c r="B91">
-        <v>0.1058823529411765</v>
+        <v>0.05696202531645569</v>
       </c>
       <c r="C91">
         <v>18</v>
@@ -3754,7 +3703,7 @@
         <v>1</v>
       </c>
       <c r="H91">
-        <v>152</v>
+        <v>298</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3762,25 +3711,25 @@
         <v>97</v>
       </c>
       <c r="B92">
-        <v>0.0918918918918919</v>
+        <v>0.04872389791183294</v>
       </c>
       <c r="C92">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D92">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E92">
-        <v>0.06</v>
+        <v>0.12</v>
       </c>
       <c r="F92">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="G92" t="b">
         <v>1</v>
       </c>
       <c r="H92">
-        <v>168</v>
+        <v>410</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3788,25 +3737,25 @@
         <v>98</v>
       </c>
       <c r="B93">
-        <v>0.08781869688385269</v>
+        <v>0.04672897196261682</v>
       </c>
       <c r="C93">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D93">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="E93">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="F93">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="G93" t="b">
         <v>1</v>
       </c>
       <c r="H93">
-        <v>322</v>
+        <v>408</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3814,25 +3763,25 @@
         <v>99</v>
       </c>
       <c r="B94">
-        <v>0.08673469387755102</v>
+        <v>0.04294478527607362</v>
       </c>
       <c r="C94">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="D94">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="E94">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F94">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="G94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H94">
-        <v>179</v>
+        <v>624</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3840,233 +3789,25 @@
         <v>100</v>
       </c>
       <c r="B95">
-        <v>0.08258928571428571</v>
+        <v>0.03792667509481669</v>
       </c>
       <c r="C95">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D95">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E95">
-        <v>0.03</v>
+        <v>0.09</v>
       </c>
       <c r="F95">
-        <v>0.97</v>
+        <v>0.91</v>
       </c>
       <c r="G95" t="b">
         <v>1</v>
       </c>
       <c r="H95">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
-      <c r="A96" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B96">
-        <v>0.06435643564356436</v>
-      </c>
-      <c r="C96">
-        <v>39</v>
-      </c>
-      <c r="D96">
-        <v>41</v>
-      </c>
-      <c r="E96">
-        <v>0.05</v>
-      </c>
-      <c r="F96">
-        <v>0.95</v>
-      </c>
-      <c r="G96" t="b">
-        <v>1</v>
-      </c>
-      <c r="H96">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
-      <c r="A97" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B97">
-        <v>0.06012658227848101</v>
-      </c>
-      <c r="C97">
-        <v>19</v>
-      </c>
-      <c r="D97">
-        <v>20</v>
-      </c>
-      <c r="E97">
-        <v>0.05</v>
-      </c>
-      <c r="F97">
-        <v>0.95</v>
-      </c>
-      <c r="G97" t="b">
-        <v>1</v>
-      </c>
-      <c r="H97">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
-      <c r="A98" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B98">
-        <v>0.05568445475638051</v>
-      </c>
-      <c r="C98">
-        <v>24</v>
-      </c>
-      <c r="D98">
-        <v>27</v>
-      </c>
-      <c r="E98">
-        <v>0.11</v>
-      </c>
-      <c r="F98">
-        <v>0.89</v>
-      </c>
-      <c r="G98" t="b">
-        <v>1</v>
-      </c>
-      <c r="H98">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
-      <c r="A99" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B99">
-        <v>0.05357142857142857</v>
-      </c>
-      <c r="C99">
-        <v>15</v>
-      </c>
-      <c r="D99">
-        <v>15</v>
-      </c>
-      <c r="E99">
-        <v>0</v>
-      </c>
-      <c r="F99">
-        <v>1</v>
-      </c>
-      <c r="G99" t="b">
-        <v>0</v>
-      </c>
-      <c r="H99">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
-      <c r="A100" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B100">
-        <v>0.04689480354879594</v>
-      </c>
-      <c r="C100">
-        <v>37</v>
-      </c>
-      <c r="D100">
-        <v>42</v>
-      </c>
-      <c r="E100">
-        <v>0.12</v>
-      </c>
-      <c r="F100">
-        <v>0.88</v>
-      </c>
-      <c r="G100" t="b">
-        <v>1</v>
-      </c>
-      <c r="H100">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
-      <c r="A101" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B101">
-        <v>0.03592814371257485</v>
-      </c>
-      <c r="C101">
-        <v>18</v>
-      </c>
-      <c r="D101">
-        <v>21</v>
-      </c>
-      <c r="E101">
-        <v>0.14</v>
-      </c>
-      <c r="F101">
-        <v>0.86</v>
-      </c>
-      <c r="G101" t="b">
-        <v>1</v>
-      </c>
-      <c r="H101">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
-      <c r="A102" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B102">
-        <v>0.03516819571865443</v>
-      </c>
-      <c r="C102">
-        <v>23</v>
-      </c>
-      <c r="D102">
-        <v>24</v>
-      </c>
-      <c r="E102">
-        <v>0.04</v>
-      </c>
-      <c r="F102">
-        <v>0.96</v>
-      </c>
-      <c r="G102" t="b">
-        <v>1</v>
-      </c>
-      <c r="H102">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
-      <c r="A103" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B103">
-        <v>0.0351288056206089</v>
-      </c>
-      <c r="C103">
-        <v>15</v>
-      </c>
-      <c r="D103">
-        <v>17</v>
-      </c>
-      <c r="E103">
-        <v>0.12</v>
-      </c>
-      <c r="F103">
-        <v>0.88</v>
-      </c>
-      <c r="G103" t="b">
-        <v>1</v>
-      </c>
-      <c r="H103">
-        <v>412</v>
+        <v>761</v>
       </c>
     </row>
   </sheetData>
